--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit3-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit3-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5814853333333333</v>
+        <v>2.412972666666667</v>
       </c>
       <c r="H2">
-        <v>1.744456</v>
+        <v>7.238918</v>
       </c>
       <c r="I2">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="J2">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1956266666666666</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N2">
-        <v>0.58688</v>
+        <v>1.958343</v>
       </c>
       <c r="O2">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P2">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q2">
-        <v>0.1137540374755555</v>
+        <v>1.575142710319333</v>
       </c>
       <c r="R2">
-        <v>1.02378633728</v>
+        <v>14.176284392874</v>
       </c>
       <c r="S2">
-        <v>7.180136648672968E-05</v>
+        <v>0.001340141920667944</v>
       </c>
       <c r="T2">
-        <v>7.180136648672968E-05</v>
+        <v>0.001340141920667944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5814853333333333</v>
+        <v>2.412972666666667</v>
       </c>
       <c r="H3">
-        <v>1.744456</v>
+        <v>7.238918</v>
       </c>
       <c r="I3">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="J3">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>50.619467</v>
       </c>
       <c r="O3">
-        <v>0.6109423190513904</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P3">
-        <v>0.6109423190513905</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q3">
-        <v>9.811492547216888</v>
+        <v>40.71446342407844</v>
       </c>
       <c r="R3">
-        <v>88.30343292495199</v>
+        <v>366.430170816706</v>
       </c>
       <c r="S3">
-        <v>0.006192998400746181</v>
+        <v>0.03464013695689038</v>
       </c>
       <c r="T3">
-        <v>0.006192998400746182</v>
+        <v>0.03464013695689039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5814853333333333</v>
+        <v>2.412972666666667</v>
       </c>
       <c r="H4">
-        <v>1.744456</v>
+        <v>7.238918</v>
       </c>
       <c r="I4">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="J4">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,43 +685,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.521927</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N4">
-        <v>31.565781</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O4">
-        <v>0.3809773707575451</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P4">
-        <v>0.3809773707575451</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q4">
-        <v>6.118346228904</v>
+        <v>7.100183332205778</v>
       </c>
       <c r="R4">
-        <v>55.06511606013599</v>
+        <v>63.901649989852</v>
       </c>
       <c r="S4">
-        <v>0.003861890352407389</v>
+        <v>0.006040883321605644</v>
       </c>
       <c r="T4">
-        <v>0.003861890352407389</v>
+        <v>0.006040883321605644</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5814853333333333</v>
+        <v>51.50345966666666</v>
       </c>
       <c r="H5">
-        <v>1.744456</v>
+        <v>154.510379</v>
       </c>
       <c r="I5">
-        <v>0.01013679721902723</v>
+        <v>0.8969165968468352</v>
       </c>
       <c r="J5">
-        <v>0.01013679721902723</v>
+        <v>0.8969165968468353</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02753733333333333</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N5">
-        <v>0.082612</v>
+        <v>1.958343</v>
       </c>
       <c r="O5">
-        <v>0.0009970702943488811</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P5">
-        <v>0.0009970702943488811</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q5">
-        <v>0.01601255545244444</v>
+        <v>33.62047990466633</v>
       </c>
       <c r="R5">
-        <v>0.144112999072</v>
+        <v>302.584319141997</v>
       </c>
       <c r="S5">
-        <v>1.01070993869304E-05</v>
+        <v>0.02860452847734867</v>
       </c>
       <c r="T5">
-        <v>1.01070993869304E-05</v>
+        <v>0.02860452847734868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>154.510379</v>
       </c>
       <c r="I6">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468352</v>
       </c>
       <c r="J6">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468353</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1956266666666666</v>
+        <v>16.87315566666667</v>
       </c>
       <c r="N6">
-        <v>0.58688</v>
+        <v>50.619467</v>
       </c>
       <c r="O6">
-        <v>0.007083239896715625</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P6">
-        <v>0.007083239896715625</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q6">
-        <v>10.07545013639111</v>
+        <v>869.0258923275546</v>
       </c>
       <c r="R6">
-        <v>90.67905122751999</v>
+        <v>7821.233030947993</v>
       </c>
       <c r="S6">
-        <v>0.00635960800879042</v>
+        <v>0.7393730236785441</v>
       </c>
       <c r="T6">
-        <v>0.00635960800879042</v>
+        <v>0.7393730236785443</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>154.510379</v>
       </c>
       <c r="I7">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468352</v>
       </c>
       <c r="J7">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468353</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.87315566666667</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N7">
-        <v>50.619467</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O7">
-        <v>0.6109423190513904</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P7">
-        <v>0.6109423190513905</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q7">
-        <v>869.0258923275546</v>
+        <v>151.5491704186451</v>
       </c>
       <c r="R7">
-        <v>7821.233030947993</v>
+        <v>1363.942533767806</v>
       </c>
       <c r="S7">
-        <v>0.5485277530907552</v>
+        <v>0.1289390446909423</v>
       </c>
       <c r="T7">
-        <v>0.5485277530907553</v>
+        <v>0.1289390446909424</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,25 +906,25 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>51.50345966666666</v>
+        <v>0.003190333333333333</v>
       </c>
       <c r="H8">
-        <v>154.510379</v>
+        <v>0.009571</v>
       </c>
       <c r="I8">
-        <v>0.8978388564446701</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="J8">
-        <v>0.8978388564446701</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,90 +933,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.521927</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N8">
-        <v>31.565781</v>
+        <v>1.958343</v>
       </c>
       <c r="O8">
-        <v>0.3809773707575451</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P8">
-        <v>0.3809773707575451</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q8">
-        <v>541.915642860111</v>
+        <v>0.002082588983666667</v>
       </c>
       <c r="R8">
-        <v>4877.240785740999</v>
+        <v>0.018743300853</v>
       </c>
       <c r="S8">
-        <v>0.3420562868922514</v>
+        <v>1.771880593579439E-06</v>
       </c>
       <c r="T8">
-        <v>0.3420562868922514</v>
+        <v>1.771880593579439E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>51.50345966666666</v>
+        <v>0.003190333333333333</v>
       </c>
       <c r="H9">
-        <v>154.510379</v>
+        <v>0.009571</v>
       </c>
       <c r="I9">
-        <v>0.8978388564446701</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="J9">
-        <v>0.8978388564446701</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02753733333333333</v>
+        <v>16.87315566666667</v>
       </c>
       <c r="N9">
-        <v>0.082612</v>
+        <v>50.619467</v>
       </c>
       <c r="O9">
-        <v>0.0009970702943488811</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P9">
-        <v>0.0009970702943488811</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q9">
-        <v>1.418267936660889</v>
+        <v>0.05383099096188888</v>
       </c>
       <c r="R9">
-        <v>12.764411429948</v>
+        <v>0.484478918657</v>
       </c>
       <c r="S9">
-        <v>0.00089520845287315</v>
+        <v>4.579976604437263E-05</v>
       </c>
       <c r="T9">
-        <v>0.00089520845287315</v>
+        <v>4.579976604437264E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,51 +1039,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.008161333333333333</v>
+        <v>0.003190333333333333</v>
       </c>
       <c r="H10">
-        <v>0.024484</v>
+        <v>0.009571</v>
       </c>
       <c r="I10">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="J10">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1956266666666666</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N10">
-        <v>0.58688</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O10">
-        <v>0.007083239896715625</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P10">
-        <v>0.007083239896715625</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q10">
-        <v>0.001596574435555555</v>
+        <v>0.009387570721555556</v>
       </c>
       <c r="R10">
-        <v>0.01436916992</v>
+        <v>0.084488136494</v>
       </c>
       <c r="S10">
-        <v>1.0077552297456E-06</v>
+        <v>7.987007764294004E-06</v>
       </c>
       <c r="T10">
-        <v>1.0077552297456E-06</v>
+        <v>7.987007764294004E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.008161333333333333</v>
+        <v>3.460560666666667</v>
       </c>
       <c r="H11">
-        <v>0.024484</v>
+        <v>10.381682</v>
       </c>
       <c r="I11">
-        <v>0.0001422732032855301</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="J11">
-        <v>0.0001422732032855301</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.87315566666667</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N11">
-        <v>50.619467</v>
+        <v>1.958343</v>
       </c>
       <c r="O11">
-        <v>0.6109423190513904</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P11">
-        <v>0.6109423190513905</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q11">
-        <v>0.1377074477808889</v>
+        <v>2.258988252547334</v>
       </c>
       <c r="R11">
-        <v>1.239367030028</v>
+        <v>20.330894272926</v>
       </c>
       <c r="S11">
-        <v>8.692072075413167E-05</v>
+        <v>0.001921962267737225</v>
       </c>
       <c r="T11">
-        <v>8.692072075413169E-05</v>
+        <v>0.001921962267737225</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.008161333333333333</v>
+        <v>3.460560666666667</v>
       </c>
       <c r="H12">
-        <v>0.024484</v>
+        <v>10.381682</v>
       </c>
       <c r="I12">
-        <v>0.0001422732032855301</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="J12">
-        <v>0.0001422732032855301</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.521927</v>
+        <v>16.87315566666667</v>
       </c>
       <c r="N12">
-        <v>31.565781</v>
+        <v>50.619467</v>
       </c>
       <c r="O12">
-        <v>0.3809773707575451</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P12">
-        <v>0.3809773707575451</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q12">
-        <v>0.085872953556</v>
+        <v>58.39057882261045</v>
       </c>
       <c r="R12">
-        <v>0.7728565820039999</v>
+        <v>525.5152094034941</v>
       </c>
       <c r="S12">
-        <v>5.420287091697499E-05</v>
+        <v>0.04967909379867042</v>
       </c>
       <c r="T12">
-        <v>5.420287091697499E-05</v>
+        <v>0.04967909379867043</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.008161333333333333</v>
+        <v>3.460560666666667</v>
       </c>
       <c r="H13">
-        <v>0.024484</v>
+        <v>10.381682</v>
       </c>
       <c r="I13">
-        <v>0.0001422732032855301</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="J13">
-        <v>0.0001422732032855301</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.02753733333333333</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N13">
-        <v>0.082612</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O13">
-        <v>0.0009970702943488811</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P13">
-        <v>0.0009970702943488811</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q13">
-        <v>0.0002247413564444444</v>
+        <v>10.18271591094978</v>
       </c>
       <c r="R13">
-        <v>0.002022672208</v>
+        <v>91.64444319854802</v>
       </c>
       <c r="S13">
-        <v>1.418563846778617E-07</v>
+        <v>0.00866352259329551</v>
       </c>
       <c r="T13">
-        <v>1.418563846778617E-07</v>
+        <v>0.00866352259329551</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.171561333333333</v>
+        <v>0.03242133333333333</v>
       </c>
       <c r="H14">
-        <v>15.514684</v>
+        <v>0.09726399999999999</v>
       </c>
       <c r="I14">
-        <v>0.09015372449937761</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="J14">
-        <v>0.0901537244993776</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1956266666666666</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N14">
-        <v>0.58688</v>
+        <v>1.958343</v>
       </c>
       <c r="O14">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P14">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q14">
-        <v>1.011695305102222</v>
+        <v>0.02116403039466666</v>
       </c>
       <c r="R14">
-        <v>9.105257745919999</v>
+        <v>0.190476273552</v>
       </c>
       <c r="S14">
-        <v>0.0006385804582115005</v>
+        <v>1.800649817719262E-05</v>
       </c>
       <c r="T14">
-        <v>0.0006385804582115003</v>
+        <v>1.800649817719262E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.171561333333333</v>
+        <v>0.03242133333333333</v>
       </c>
       <c r="H15">
-        <v>15.514684</v>
+        <v>0.09726399999999999</v>
       </c>
       <c r="I15">
-        <v>0.09015372449937761</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="J15">
-        <v>0.0901537244993776</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>50.619467</v>
       </c>
       <c r="O15">
-        <v>0.6109423190513904</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P15">
-        <v>0.6109423190513905</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q15">
-        <v>87.26055941704755</v>
+        <v>0.5470502042542221</v>
       </c>
       <c r="R15">
-        <v>785.345034753428</v>
+        <v>4.923451838287999</v>
       </c>
       <c r="S15">
-        <v>0.05507872551676991</v>
+        <v>0.0004654339613979583</v>
       </c>
       <c r="T15">
-        <v>0.05507872551676991</v>
+        <v>0.0004654339613979583</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.171561333333333</v>
+        <v>0.03242133333333333</v>
       </c>
       <c r="H16">
-        <v>15.514684</v>
+        <v>0.09726399999999999</v>
       </c>
       <c r="I16">
-        <v>0.09015372449937761</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="J16">
-        <v>0.0901537244993776</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.521927</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N16">
-        <v>31.565781</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O16">
-        <v>0.3809773707575451</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P16">
-        <v>0.3809773707575451</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q16">
-        <v>54.41479082535599</v>
+        <v>0.09539992463288888</v>
       </c>
       <c r="R16">
-        <v>489.7331174282039</v>
+        <v>0.858599321696</v>
       </c>
       <c r="S16">
-        <v>0.03434652892377296</v>
+        <v>8.116689198477608E-05</v>
       </c>
       <c r="T16">
-        <v>0.03434652892377296</v>
+        <v>8.116689198477608E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>5.171561333333333</v>
+        <v>0.01019233333333333</v>
       </c>
       <c r="H17">
-        <v>15.514684</v>
+        <v>0.030577</v>
       </c>
       <c r="I17">
-        <v>0.09015372449937761</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="J17">
-        <v>0.0901537244993776</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02753733333333333</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N17">
-        <v>0.082612</v>
+        <v>1.958343</v>
       </c>
       <c r="O17">
-        <v>0.0009970702943488811</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P17">
-        <v>0.0009970702943488811</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q17">
-        <v>0.1424110082897778</v>
+        <v>0.006653361545666665</v>
       </c>
       <c r="R17">
-        <v>1.281699074608</v>
+        <v>0.059880253911</v>
       </c>
       <c r="S17">
-        <v>8.988960062324236E-05</v>
+        <v>5.660724366302217E-06</v>
       </c>
       <c r="T17">
-        <v>8.988960062324235E-05</v>
+        <v>5.660724366302217E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.059197</v>
+        <v>0.01019233333333333</v>
       </c>
       <c r="H18">
-        <v>0.177591</v>
+        <v>0.030577</v>
       </c>
       <c r="I18">
-        <v>0.001031957214698602</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="J18">
-        <v>0.001031957214698602</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1956266666666666</v>
+        <v>16.87315566666667</v>
       </c>
       <c r="N18">
-        <v>0.58688</v>
+        <v>50.619467</v>
       </c>
       <c r="O18">
-        <v>0.007083239896715625</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P18">
-        <v>0.007083239896715625</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q18">
-        <v>0.01158051178666667</v>
+        <v>0.1719768269398889</v>
       </c>
       <c r="R18">
-        <v>0.10422460608</v>
+        <v>1.547791442459</v>
       </c>
       <c r="S18">
-        <v>7.309600514856672E-06</v>
+        <v>0.0001463190310666369</v>
       </c>
       <c r="T18">
-        <v>7.309600514856672E-06</v>
+        <v>0.0001463190310666369</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.059197</v>
+        <v>0.01019233333333333</v>
       </c>
       <c r="H19">
-        <v>0.177591</v>
+        <v>0.030577</v>
       </c>
       <c r="I19">
-        <v>0.001031957214698602</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="J19">
-        <v>0.001031957214698602</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.87315566666667</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N19">
-        <v>50.619467</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O19">
-        <v>0.6109423190513904</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P19">
-        <v>0.6109423190513905</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q19">
-        <v>0.9988401959996666</v>
+        <v>0.02999098839755555</v>
       </c>
       <c r="R19">
-        <v>8.989561763996999</v>
+        <v>0.269918895578</v>
       </c>
       <c r="S19">
-        <v>0.0006304663339097776</v>
+        <v>2.55165329023945E-05</v>
       </c>
       <c r="T19">
-        <v>0.0006304663339097777</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.059197</v>
-      </c>
-      <c r="H20">
-        <v>0.177591</v>
-      </c>
-      <c r="I20">
-        <v>0.001031957214698602</v>
-      </c>
-      <c r="J20">
-        <v>0.001031957214698602</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>10.521927</v>
-      </c>
-      <c r="N20">
-        <v>31.565781</v>
-      </c>
-      <c r="O20">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="P20">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="Q20">
-        <v>0.6228665126189999</v>
-      </c>
-      <c r="R20">
-        <v>5.605798613570999</v>
-      </c>
-      <c r="S20">
-        <v>0.000393152346390153</v>
-      </c>
-      <c r="T20">
-        <v>0.0003931523463901529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.059197</v>
-      </c>
-      <c r="H21">
-        <v>0.177591</v>
-      </c>
-      <c r="I21">
-        <v>0.001031957214698602</v>
-      </c>
-      <c r="J21">
-        <v>0.001031957214698602</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.02753733333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.082612</v>
-      </c>
-      <c r="O21">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="P21">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="Q21">
-        <v>0.001630127521333333</v>
-      </c>
-      <c r="R21">
-        <v>0.014671147692</v>
-      </c>
-      <c r="S21">
-        <v>1.028933883814987E-06</v>
-      </c>
-      <c r="T21">
-        <v>1.028933883814987E-06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.03994766666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.119843</v>
-      </c>
-      <c r="I22">
-        <v>0.0006963914189408505</v>
-      </c>
-      <c r="J22">
-        <v>0.0006963914189408506</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.1956266666666666</v>
-      </c>
-      <c r="N22">
-        <v>0.58688</v>
-      </c>
-      <c r="O22">
-        <v>0.007083239896715625</v>
-      </c>
-      <c r="P22">
-        <v>0.007083239896715625</v>
-      </c>
-      <c r="Q22">
-        <v>0.00781482887111111</v>
-      </c>
-      <c r="R22">
-        <v>0.07033345984</v>
-      </c>
-      <c r="S22">
-        <v>4.932707482372238E-06</v>
-      </c>
-      <c r="T22">
-        <v>4.932707482372239E-06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.03994766666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.119843</v>
-      </c>
-      <c r="I23">
-        <v>0.0006963914189408505</v>
-      </c>
-      <c r="J23">
-        <v>0.0006963914189408506</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>16.87315566666667</v>
-      </c>
-      <c r="N23">
-        <v>50.619467</v>
-      </c>
-      <c r="O23">
-        <v>0.6109423190513904</v>
-      </c>
-      <c r="P23">
-        <v>0.6109423190513905</v>
-      </c>
-      <c r="Q23">
-        <v>0.6740431981867777</v>
-      </c>
-      <c r="R23">
-        <v>6.066388783681</v>
-      </c>
-      <c r="S23">
-        <v>0.0004254549884552116</v>
-      </c>
-      <c r="T23">
-        <v>0.0004254549884552117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.03994766666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.119843</v>
-      </c>
-      <c r="I24">
-        <v>0.0006963914189408505</v>
-      </c>
-      <c r="J24">
-        <v>0.0006963914189408506</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>10.521927</v>
-      </c>
-      <c r="N24">
-        <v>31.565781</v>
-      </c>
-      <c r="O24">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="P24">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="Q24">
-        <v>0.420326432487</v>
-      </c>
-      <c r="R24">
-        <v>3.782937892383</v>
-      </c>
-      <c r="S24">
-        <v>0.0002653093718062014</v>
-      </c>
-      <c r="T24">
-        <v>0.0002653093718062014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.03994766666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.119843</v>
-      </c>
-      <c r="I25">
-        <v>0.0006963914189408505</v>
-      </c>
-      <c r="J25">
-        <v>0.0006963914189408506</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.02753733333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.082612</v>
-      </c>
-      <c r="O25">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="P25">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="Q25">
-        <v>0.001100052212888889</v>
-      </c>
-      <c r="R25">
-        <v>0.009900469916000002</v>
-      </c>
-      <c r="S25">
-        <v>6.943511970653888E-07</v>
-      </c>
-      <c r="T25">
-        <v>6.943511970653889E-07</v>
+        <v>2.55165329023945E-05</v>
       </c>
     </row>
   </sheetData>
